--- a/data/trans_dic/P23_6_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_6_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios (tasa de respuesta: 99,39%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,19</t>
+          <t>0,0; 19,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 14,89</t>
+          <t>0,0; 22,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,15</t>
+          <t>0,0; 21,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 13,28</t>
+          <t>0,0; 23,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 15,57</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,38</t>
+          <t>0,0; 14,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 9,82</t>
+          <t>0,0; 16,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 12,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 10,13</t>
+          <t>0,0; 12,13</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 14,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 15,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 11,31</t>
         </is>
       </c>
     </row>
@@ -742,12 +797,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,32 +812,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,06</t>
+          <t>0,0; 44,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,59</t>
+          <t>2,03; 50,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,08</t>
+          <t>0,0; 8,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,61</t>
+          <t>0,0; 7,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,9</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 15,0</t>
+          <t>0,0; 12,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,42</t>
+          <t>0,0; 4,43</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 29,51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 37,14</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 13,36</t>
+          <t>1,66; 14,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,79</t>
+          <t>1,63; 12,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 13,44</t>
+          <t>3,79; 20,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,63</t>
+          <t>4,3; 21,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,77</t>
+          <t>2,86; 12,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 10,13</t>
+          <t>0,84; 9,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,54</t>
+          <t>1,7; 9,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,35</t>
+          <t>0,0; 8,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 9,44</t>
+          <t>3,15; 11,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 7,98</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 12,33</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 11,43</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,69</t>
+          <t>1,09; 9,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,24</t>
+          <t>0,0; 10,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 8,35</t>
+          <t>0,0; 4,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,94</t>
+          <t>1,13; 11,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 17,35</t>
+          <t>4,04; 15,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 12,31</t>
+          <t>8,05; 21,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,67</t>
+          <t>3,07; 14,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 10,47</t>
+          <t>6,0; 18,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,0</t>
+          <t>3,49; 10,73</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 13,53</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 8,17</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 13,03</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 11,68</t>
+          <t>1,44; 14,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 26,4</t>
+          <t>0,0; 39,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 8,22</t>
+          <t>1,15; 11,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,72; 14,49</t>
+          <t>1,32; 12,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 15,02</t>
+          <t>0,0; 13,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 17,28</t>
+          <t>2,02; 17,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 10,94</t>
+          <t>2,03; 18,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 16,86</t>
+          <t>12,22; 37,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,34</t>
+          <t>1,73; 10,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 22,31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 11,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 22,57</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11,71%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>5,44%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,12%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,34%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,55%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,8%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,02%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,93%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,93%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,35%</t>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 12,84</t>
+          <t>0,0; 12,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,67; 16,08</t>
+          <t>0,0; 13,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 12,88</t>
+          <t>0,0; 19,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 25,41</t>
+          <t>0,0; 23,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 14,87</t>
+          <t>4,5; 23,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 14,12</t>
+          <t>0,0; 9,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 17,29</t>
+          <t>1,84; 18,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 11,87</t>
+          <t>9,43; 36,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,53</t>
+          <t>3,34; 14,55</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,56</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 13,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7,33; 26,08</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,69</t>
+          <t>2,04; 6,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,4</t>
+          <t>3,4; 14,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,63</t>
+          <t>1,88; 7,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,8</t>
+          <t>5,31; 19,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,61</t>
+          <t>3,94; 8,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,92; 8,63</t>
+          <t>3,64; 8,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,9</t>
+          <t>3,59; 8,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,92</t>
+          <t>6,39; 12,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,37</t>
+          <t>3,67; 6,88</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 10,06</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 6,77</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 14,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios (tasa de respuesta: 99,39%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7903</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6386</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5668</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5888</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8852</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13571</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12274</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21250</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23652</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26796</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 33912</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17953</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17302</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20152</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 29243</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3550; 33141</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2957; 38032</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 32940</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20162</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>38559</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3121</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4121</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5969</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3121</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22459</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4121</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>44528</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 64312</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4612; 115803</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13976</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9958</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13028</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19887</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14787</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2633; 79707</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15718</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9469; 144873</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10744</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7099</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13463</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20246</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15871</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6267</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9017</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5728</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26614</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13367</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22480</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>25974</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2692; 23372</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2194; 16968</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5133; 28235</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7746; 38179</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7544; 34149</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1752; 18906</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3400; 20013</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20715</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13413; 47553</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5999; 27414</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11814; 41407</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10897; 47983</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6500</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9055</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19169</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>25231</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12113</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23923</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25668</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29499</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13925</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>32978</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2034; 16979</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15970</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7372</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2142; 21614</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8821; 33201</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14804; 38690</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5237; 24358</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12769; 39924</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14151; 43477</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>17626; 46450</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6463; 26671</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>19415; 52389</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9072</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12104</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6885</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5930</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7460</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29993</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13502</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18034</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12260</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36878</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2262; 22062</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 51143</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1417; 13606</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2049; 18611</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15338</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1818; 15939</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1877; 17295</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16491; 49993</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4732; 27481</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5554; 48667</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5388; 24808</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20394; 65377</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2745</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10294</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15294</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7739</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>34725</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>17907</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>10483</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>45020</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13403</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10337</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15859</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 33045</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5881; 31149</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10475</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2038; 20317</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>16159; 62397</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>8010; 34921</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13919</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3210; 25044</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22658; 80623</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>34138</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>53589</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>29206</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>94428</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>61527</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>47414</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>46337</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>100337</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>95665</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>101003</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>75543</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>194766</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>18170; 58516</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>25489; 109848</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>14609; 55381</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>54964; 198513</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>40488; 89870</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>30386; 68991</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>29562; 66782</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>68141; 137463</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>70411; 132068</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>64005; 159460</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>52998; 108467</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>144219; 303132</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>